--- a/MLPL.xlsx
+++ b/MLPL.xlsx
@@ -245,7 +245,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">29-11-2025 10:53:57
+            <t xml:space="preserve">25-12-2025 06:08:28
 </t>
           </r>
           <r>
@@ -294,7 +294,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">29-11-2025</t>
+            <t xml:space="preserve">25-12-2025</t>
           </r>
         </is>
       </c>
@@ -642,10 +642,10 @@
         <v>45772.7665856481</v>
       </c>
       <c s="6" r="AD3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="6" r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="3" t="inlineStr" r="AF3">
         <is>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c s="6" r="AE4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="3" t="inlineStr" r="AF4">
         <is>
@@ -20988,10 +20988,10 @@
         <v>45864.7941782407</v>
       </c>
       <c s="6" r="AD110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="6" r="AE110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c s="3" t="inlineStr" r="AF110">
         <is>
